--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462456.1509486052</v>
+        <v>393296.3414124861</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430052.9979393124</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12067207.45009627</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8042865.68897362</v>
+        <v>8574109.934192413</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.7659851933074</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.583694061602047</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>72.47049842454874</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>50.05769526855297</v>
+        <v>158.5659129997286</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1305,55 +1305,55 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>243.2386572690346</v>
+        <v>265.1806127579634</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>175.7569470849743</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>251.057140605644</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>110.7477710654853</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>147.2301468032322</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.88462298447467</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>175.1311939478779</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>57.70416378283647</v>
+        <v>92.80689267930723</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1979,7 +1979,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>61.63452494711053</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>355.1739705306457</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>242.2866730943828</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>22.31780041593511</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>36.86740133315055</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>127.8827433377325</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9118647420295</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>81.1220065286376</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>63.4261941571374</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>129.6781866221426</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>390.4800487654391</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3325,16 +3325,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>79.23462827288917</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>26.32882004050029</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>132.3401402600192</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>204.7865225372084</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>132.5621367133955</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>156.0582739785054</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>325.2399460717371</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>63.10802839794265</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U46" t="n">
-        <v>160.103673200676</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4375,7 +4375,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4412,46 +4412,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>360.2295980564601</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>152.3780978509273</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4515,7 +4515,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>955.386757468614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4834,22 +4834,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>913.4938269565423</v>
+        <v>630.4722220726903</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063566</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X11" t="n">
-        <v>579.9844679696339</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0384945329112</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618844</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>22.09252109618844</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>268.2479876888895</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>541.6429362542214</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>815.0378848195533</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.534698402837</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>927.0937850266196</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>691.9416767948769</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>437.7043200666752</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>229.8528198611424</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618844</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>29.36865006843007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.6855924150208</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C14" t="n">
-        <v>275.6855924150208</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D14" t="n">
-        <v>275.6855924150208</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E14" t="n">
-        <v>275.6855924150208</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>275.6855924150208</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>275.6855924150208</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>962.1762753293418</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2855273228794</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>529.5587134138201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>275.6855924150208</v>
+        <v>2585.28265559854</v>
       </c>
       <c r="V14" t="n">
-        <v>275.6855924150208</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="W14" t="n">
-        <v>275.6855924150208</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X14" t="n">
-        <v>275.6855924150208</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y14" t="n">
-        <v>275.6855924150208</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>466.5192698462128</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>466.5192698462128</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>466.5192698462128</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2818148407573</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>160.7472568676423</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318535</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>28.39914141318535</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5546080058863</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>547.9495565712182</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>821.3445051365501</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>955.9087348061571</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>720.7566265744144</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>466.5192698462128</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>466.5192698462128</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>466.5192698462128</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492715</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160687</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.175505447095</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C17" t="n">
-        <v>825.2129885066831</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D17" t="n">
-        <v>825.2129885066831</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E17" t="n">
-        <v>439.4247359084389</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F17" t="n">
-        <v>439.4247359084389</v>
+        <v>147.6873178600687</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487028</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.775345511217</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="18">
@@ -5594,37 +5594,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2294.708047044453</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C22" t="n">
-        <v>2125.771864116546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874692</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>808.6937513590203</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C23" t="n">
-        <v>439.7312344186087</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1540.921096014692</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1167.455337753612</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.455337753612</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>564.1527310008552</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>564.1527310008552</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>564.1527310008552</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>274.7355609638946</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>820.540165768728</v>
       </c>
       <c r="D26" t="n">
-        <v>819.715945170047</v>
+        <v>462.2744671619775</v>
       </c>
       <c r="E26" t="n">
-        <v>433.9276925718028</v>
+        <v>76.48621456373326</v>
       </c>
       <c r="F26" t="n">
-        <v>433.9276925718028</v>
+        <v>76.48621456373326</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>76.48621456373326</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6229,16 +6229,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.18278114677915</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>91.18278114677915</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>91.18278114677915</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>91.18278114677915</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>91.18278114677915</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>272.8312459770189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>272.8312459770189</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2310.5492509541</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C29" t="n">
-        <v>1941.586734013689</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D29" t="n">
-        <v>1583.321035406938</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>1197.532782808694</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2349.339935770353</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018222</v>
+        <v>1975.874177509273</v>
       </c>
       <c r="Y29" t="n">
-        <v>2697.149091018222</v>
+        <v>1585.734845533462</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2140.045780290769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2140.045780290769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2140.045780290769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2140.045780290769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2140.045780290769</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2549.002432452407</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T31" t="n">
-        <v>2321.694245121008</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U31" t="n">
-        <v>2321.694245121008</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V31" t="n">
-        <v>2321.694245121008</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>2321.694245121008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>2321.694245121008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2321.694245121008</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>863.1126181035243</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>494.1501011631125</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>135.884402556362</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>135.884402556362</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>135.884402556362</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>135.884402556362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2578.053538763728</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2578.053538763728</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2324.29175340182</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2324.29175340182</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X32" t="n">
-        <v>1639.851790143458</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y32" t="n">
-        <v>1249.712458167646</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6791,19 +6791,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073963</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>571.3497027553424</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.982837814967</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>1245.141430890478</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>859.3531782922337</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>448.3672735026261</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W35" t="n">
-        <v>1582.448596076047</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X35" t="n">
-        <v>1208.982837814967</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y35" t="n">
-        <v>1208.982837814967</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2251.981069572903</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="C38" t="n">
-        <v>1883.018552632492</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>1089.747767981693</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572903</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7341,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635869</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>184.0273259635869</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.0273259635869</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2149.375138862102</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C41" t="n">
-        <v>1780.41262192169</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>187.8441300157135</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>187.8441300157135</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>187.8441300157135</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>2539.514470837914</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y41" t="n">
-        <v>2149.375138862102</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.7397945496688</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C43" t="n">
-        <v>65.7397945496688</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D43" t="n">
-        <v>65.7397945496688</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>65.7397945496688</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245972</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931989</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V43" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X43" t="n">
-        <v>286.5323736931989</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.7397945496688</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7690,10 +7690,10 @@
         <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1422.14692331494</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406185</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U46" t="n">
-        <v>418.2614436197335</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V46" t="n">
-        <v>418.2614436197335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W46" t="n">
-        <v>418.2614436197335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>142.9145225887215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N15" t="n">
-        <v>387.9064735273547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>132.2325872309998</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415591</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,10 +22564,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>73.91671058399695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22755,10 +22755,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22837,16 +22837,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.2478283578181</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.0990017157023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>291.5414323341854</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>342.8322390905863</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>150.1070334262686</v>
+        <v>41.59881569509298</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>106.0023114483784</v>
+        <v>84.06035595944962</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,22 +23427,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>154.462316415358</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>86.9758062886568</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>140.476396442804</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>78.70627943896164</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,28 +23658,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>59.5493396620945</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>111.3918043887131</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>356.0800062379585</v>
+        <v>320.9772773414878</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,10 +23788,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>189.5896425611788</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24180,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>123.2544177285352</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.55987113283487</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>139.643696977879</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.8747513665082</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24411,13 +24411,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>62.69861478456104</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>37.59930637687103</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>301.6049723484221</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.4424009259004</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>123.3414241705568</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.39793751702142</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>242.8007662357195</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>110.9895186518341</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.93405031343778</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>156.6036876198351</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>23.30412125535594</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>270.0063404445239</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.9453835684542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>222.3429013606638</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>177.1438475350534</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.04847948014708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25608,13 +25608,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>20.56176979023752</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>281.2220333073994</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>213.6728266999636</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>155.6309576570396</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>201.4394243108031</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>56.69042400052467</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>306.6230722805264</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U46" t="n">
-        <v>126.1782010413017</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.70869279</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>520354.2281896698</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520354.2281896697</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190543</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190543</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>141745.4664845207</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26337,7 +26337,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26352,7 +26352,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923566</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>375583.8824232417</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213677</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>95810.56529667105</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
-        <v>42169.81622231289</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
@@ -26453,13 +26453,13 @@
         <v>44802.65617556861</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556859</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38139.58762613964</v>
+        <v>-50357.59824618013</v>
       </c>
       <c r="C6" t="n">
-        <v>42629.84390540806</v>
+        <v>30411.83328536763</v>
       </c>
       <c r="D6" t="n">
-        <v>42629.84390540812</v>
+        <v>30411.83328536765</v>
       </c>
       <c r="E6" t="n">
-        <v>43392.98961619206</v>
+        <v>-301626.6340151872</v>
       </c>
       <c r="F6" t="n">
-        <v>82021.8707454277</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="G6" t="n">
-        <v>-238295.9286496138</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="H6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="I6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="J6" t="n">
-        <v>74228.01117452183</v>
+        <v>68159.59742870269</v>
       </c>
       <c r="K6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="L6" t="n">
-        <v>137287.9537736282</v>
+        <v>131219.5400278089</v>
       </c>
       <c r="M6" t="n">
-        <v>128530.3707784143</v>
+        <v>23246.17935375071</v>
       </c>
       <c r="N6" t="n">
-        <v>137287.9537736281</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="O6" t="n">
-        <v>41477.38847695707</v>
+        <v>131219.5400278088</v>
       </c>
       <c r="P6" t="n">
-        <v>137287.953773628</v>
+        <v>131219.5400278088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26761,25 +26761,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469654</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470702</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779991</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833409</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164377</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>23.3246024308939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023555</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1565137023555</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>7.558968543445864</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36843,13 +36843,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393296.3414124861</v>
+        <v>454131.8163241865</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.243055424</v>
+        <v>337002.2430554249</v>
       </c>
     </row>
     <row r="8">
@@ -658,64 +658,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>83.12218148371484</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>182.7004482653351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>220.2131257424249</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>216.2863297033078</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>62.52515684565935</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,52 +1071,52 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>134.667568689459</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>158.5659129997286</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.9707132341636</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>265.1806127579634</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.30079766335525</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.63926978364032</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>110.7477710654853</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>341.5811448159747</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.88462298447467</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>92.80689267930723</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>110.1458031968982</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>41.65592056208442</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>70.79715983894148</v>
       </c>
       <c r="U20" t="n">
-        <v>61.63452494711053</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>242.2866730943828</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2289908592228</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8.546296656423063</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>22.31780041593511</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>314.6503616654264</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>94.63926978364044</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>21.21133664189258</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>127.8827433377325</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>63.4261941571374</v>
+        <v>104.711182368647</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>129.6781866221426</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>390.4800487654391</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.0108140474362</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>26.32882004050029</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>235.474518856444</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>204.7865225372084</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>266.482642512966</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>123.6064608052459</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>63.10802839794265</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>132.5621367133955</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>84.84244993117463</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>325.2399460717371</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>141.4957998077627</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.621576176024011</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4412,10 +4412,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="4">
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4591,22 +4591,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>241.7186438601369</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
         <v>19.28114311021272</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W6" t="n">
-        <v>290.1981659616912</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4889,10 +4889,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4722220726903</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>402.2486038090794</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>402.2486038090794</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>402.2486038090794</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>402.2486038090794</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.4883050441255</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1394.624369323446</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C11" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1394.624369323446</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1394.624369323446</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y11" t="n">
-        <v>1394.624369323446</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.5382038240415</v>
+        <v>252.6519168570175</v>
       </c>
       <c r="C13" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240415</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X13" t="n">
-        <v>149.5382038240415</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.5382038240415</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1494.154169929768</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C14" t="n">
-        <v>1125.191652989356</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D14" t="n">
-        <v>766.9259543826058</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2585.28265559854</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2254.219768254969</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>2254.219768254969</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>1880.75400999389</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y14" t="n">
-        <v>1880.75400999389</v>
+        <v>1613.257399524955</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5381,19 +5381,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>288.5951747571381</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694738</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>944.4614752479206</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>944.4614752479206</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>944.4614752479206</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>558.6732226496763</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>147.6873178600687</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.527073573122</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X17" t="n">
-        <v>1331.061315312042</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y17" t="n">
-        <v>1331.061315312042</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5618,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V19" t="n">
-        <v>667.8624625746712</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W19" t="n">
-        <v>667.8624625746712</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8624625746712</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y19" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.94664591678</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2394.430631197288</v>
       </c>
       <c r="U20" t="n">
-        <v>2403.685817956713</v>
+        <v>2140.66884583538</v>
       </c>
       <c r="V20" t="n">
-        <v>2403.685817956713</v>
+        <v>2140.66884583538</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.685817956713</v>
+        <v>1787.900190565266</v>
       </c>
       <c r="X20" t="n">
-        <v>2403.685817956713</v>
+        <v>1787.900190565266</v>
       </c>
       <c r="Y20" t="n">
-        <v>2013.546485980902</v>
+        <v>1397.760858589454</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>625.3202087220412</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>625.3202087220412</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1485.892406545185</v>
+        <v>1540.975404439291</v>
       </c>
       <c r="C23" t="n">
-        <v>1485.892406545185</v>
+        <v>1172.012887498879</v>
       </c>
       <c r="D23" t="n">
-        <v>1127.626707938434</v>
+        <v>1172.012887498879</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1172.012887498879</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>761.0269827092714</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>343.0631746074582</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X23" t="n">
-        <v>1485.892406545185</v>
+        <v>1540.975404439291</v>
       </c>
       <c r="Y23" t="n">
-        <v>1485.892406545185</v>
+        <v>1540.975404439291</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406182</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>290.5651556036576</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.57560470564027</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.50268270914</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C26" t="n">
-        <v>820.540165768728</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D26" t="n">
-        <v>462.2744671619775</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E26" t="n">
-        <v>76.48621456373326</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>76.48621456373326</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>76.48621456373326</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533133</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733118</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N26" t="n">
         <v>1836.345445977174</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U26" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V26" t="n">
-        <v>2302.336936304455</v>
+        <v>2324.29175340182</v>
       </c>
       <c r="W26" t="n">
-        <v>1949.568281034341</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="X26" t="n">
-        <v>1576.102522773261</v>
+        <v>1971.523098131706</v>
       </c>
       <c r="Y26" t="n">
-        <v>1576.102522773261</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240417</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1199.13500546934</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C29" t="n">
-        <v>830.1724885289282</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="D29" t="n">
-        <v>471.9067899221776</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="E29" t="n">
-        <v>471.9067899221776</v>
+        <v>904.3182872793534</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>493.3323824897458</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>75.36857438793271</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>75.36857438793271</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,49 +6466,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2349.339935770353</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V29" t="n">
-        <v>2349.339935770353</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W29" t="n">
-        <v>2349.339935770353</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.874177509273</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.734845533462</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6627,37 +6627,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036445</v>
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.923258067584</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2578.053538763728</v>
+        <v>2536.351530469274</v>
       </c>
       <c r="T32" t="n">
-        <v>2578.053538763728</v>
+        <v>2317.716863441337</v>
       </c>
       <c r="U32" t="n">
-        <v>2324.29175340182</v>
+        <v>2063.955078079428</v>
       </c>
       <c r="V32" t="n">
-        <v>2324.29175340182</v>
+        <v>1732.892190735858</v>
       </c>
       <c r="W32" t="n">
-        <v>1971.523098131706</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.523098131706</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="Y32" t="n">
-        <v>1971.523098131706</v>
+        <v>1380.123535465744</v>
       </c>
     </row>
     <row r="33">
@@ -6779,31 +6779,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073963</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.8327295799424</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>369.8327295799424</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1603.407129497228</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="C35" t="n">
-        <v>1603.407129497228</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="D35" t="n">
-        <v>1245.141430890478</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="E35" t="n">
-        <v>859.3531782922337</v>
+        <v>1035.428870517276</v>
       </c>
       <c r="F35" t="n">
-        <v>448.3672735026261</v>
+        <v>624.4429657276687</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>206.4791576258556</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>206.4791576258556</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.54646147304</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X35" t="n">
-        <v>1993.54646147304</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1603.407129497228</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7019,22 +7019,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1448.013466588443</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C38" t="n">
-        <v>1448.013466588443</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D38" t="n">
-        <v>1089.747767981693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W38" t="n">
-        <v>2224.752638628377</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X38" t="n">
-        <v>2224.752638628377</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y38" t="n">
-        <v>1834.613306652565</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>520.9088977430002</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C40" t="n">
-        <v>351.9727148150933</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>178.7979927347542</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>178.7979927347542</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X40" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y40" t="n">
-        <v>520.9088977430002</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>546.109828622464</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C41" t="n">
-        <v>546.109828622464</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D41" t="n">
-        <v>187.8441300157135</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>187.8441300157135</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>187.8441300157135</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982757</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y41" t="n">
-        <v>546.109828622464</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>200.8329293182748</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1485.892406545185</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C44" t="n">
-        <v>1485.892406545185</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D44" t="n">
-        <v>1127.626707938434</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545185</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545185</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7745,7 +7745,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951772</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10123,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22603,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>54.22133567949579</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,13 +22685,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>50.10013888409014</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>129.0278429749881</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>9.655052377667005</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>143.2478283578181</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>291.5414323341854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38.04093029885675</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>41.59881569509298</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>69.30217853684394</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>84.06035595944962</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.9460234352726</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>50.78177823929093</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23551,19 +23551,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>140.476396442804</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>44.65679384007888</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.5493396620945</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>320.9772773414878</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>259.5852974815708</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,16 +23940,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4816825345735</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>176.9287327900104</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>145.6511605187163</v>
       </c>
       <c r="U20" t="n">
-        <v>189.5896425611788</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>123.2544177285352</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>139.643696977879</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>37.69378190513436</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.8747513665082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263364</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6049723484221</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>13.10189680470853</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684543</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>130.7199796029687</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>123.3414241705568</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>110.9895186518341</v>
+        <v>69.70453044032453</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>156.6036876198351</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>23.30412125535594</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0.9205021974250371</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>120.1051426060689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25371,10 +25371,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>51.04847948014702</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>177.1438475350534</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>119.7552961430876</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>32.56442803654929</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>20.56176979023752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>291.5750132227403</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>281.2220333073994</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>201.4394243108031</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>56.69042400052467</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>272.2883702130323</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25918,7 +25918,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190543</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="L2" t="n">
         <v>231322.0880126061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="K2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>231322.0880126062</v>
       </c>
-      <c r="M2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231322.0880126061</v>
-      </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910617</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.65617556859</v>
       </c>
       <c r="K4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="L4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.59824618013</v>
+        <v>-39361.38868814368</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536763</v>
+        <v>41408.04284340407</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536765</v>
+        <v>41408.04284340407</v>
       </c>
       <c r="E6" t="n">
-        <v>-301626.6340151872</v>
+        <v>-296165.06164395</v>
       </c>
       <c r="F6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="G6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.59742870269</v>
+        <v>73621.16979994001</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="M6" t="n">
-        <v>23246.17935375071</v>
+        <v>28707.75172498805</v>
       </c>
       <c r="N6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="O6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990462</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26810,10 +26810,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181302</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730622</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37563,7 +37563,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
